--- a/RabiConfig/xlsx/Battle/Unit.xlsx
+++ b/RabiConfig/xlsx/Battle/Unit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ausu\Desktop\RabiDemoFramework\RabiConfig\xlsx\Battle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AC4404-A362-4E7A-8209-3D55BDD99EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7A66D3-7D03-4539-89C4-5CF9D706E7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-204" yWindow="528" windowWidth="11736" windowHeight="10092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="996" windowWidth="11736" windowHeight="10092" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,14 +53,6 @@
     <t>Camp</t>
   </si>
   <si>
-    <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,62 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击范围搜索器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackRangeSearcher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diamond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Straight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Square</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elephant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Advisor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chariot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>General</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Horse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,6 +90,124 @@
   </si>
   <si>
     <t>UnitType</t>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedElephant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedAdvisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedCannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedChariot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedGeneral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedHorse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSoldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackElephant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackAdvisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackCannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackChariot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackGeneral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackHorse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackSoldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resources/Battle/BlackAdvisor.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Battle/BlackCannon.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Battle/BlackChariot.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Battle/BlackElephant.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Battle/BlackGeneral.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Battle/BlackHorse.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Battle/BlackSoldier.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Battle/RedAdvisor.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Battle/RedCannon.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Battle/RedChariot.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Battle/RedElephant.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Battle/RedGeneral.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Battle/RedHorse.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Battle/RedSoldier.prefab</t>
   </si>
 </sst>
 </file>
@@ -491,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -507,7 +561,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -519,10 +573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9C05AB-F1DF-45D1-808E-7FED223F5C39}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -566,29 +620,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -599,17 +645,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F30DF5-87DF-4997-810B-8A7D648846C3}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -637,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,30 +698,30 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
+      <c r="D4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,52 +729,132 @@
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
